--- a/صيدليات دكتور مصطفي طلعت_2026-01-12_17-21.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-12_17-21.xlsx
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>4:0</t>
+  </si>
+  <si>
+    <t>HERO BABY NEUTRASENSE 1 MILK 400 GM</t>
   </si>
   <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
@@ -1270,17 +1273,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>86.5</v>
+        <v>381</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1296,13 +1299,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>19</v>
+        <v>86.5</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1322,17 +1325,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1348,17 +1351,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1366,7 +1369,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1374,13 +1377,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1400,13 +1403,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1426,17 +1429,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>56.399999999999999</v>
+        <v>76</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1444,7 +1447,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1452,13 +1455,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>37.600000000000001</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1478,13 +1481,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>42</v>
+        <v>37.600000000000001</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1510,11 +1513,11 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1530,13 +1533,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>675</v>
+        <v>76</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1556,13 +1559,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>25</v>
+        <v>675</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1582,17 +1585,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1600,7 +1603,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1608,17 +1611,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1626,7 +1629,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1634,7 +1637,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -1644,7 +1647,7 @@
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1660,13 +1663,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1686,13 +1689,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1712,13 +1715,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1730,7 +1733,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1738,17 +1741,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1764,17 +1767,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1790,13 +1793,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>54.450000000000003</v>
+        <v>35</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1804,37 +1807,63 @@
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
-      <c r="K43" s="10">
-        <v>2047.55</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" ht="17.25" customHeight="1">
-      <c t="s" r="A44" s="11">
+      <c r="A43" s="6">
+        <v>40</v>
+      </c>
+      <c t="s" r="B43" s="7">
+        <v>66</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c t="s" r="H43" s="8">
         <v>67</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c t="s" r="F44" s="12">
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9">
+        <v>54.450000000000003</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c t="s" r="N43" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="K44" s="10">
+        <v>2428.5500000000002</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="11">
         <v>68</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
-      <c t="s" r="I44" s="14">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c t="s" r="F45" s="12">
         <v>69</v>
       </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
+      <c t="s" r="I45" s="14">
+        <v>70</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="131">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1959,10 +1988,13 @@
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:N45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
